--- a/data/trans_dic/P56$auxiliar-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1795591683330326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3832249441489688</v>
+        <v>0.383224944148969</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -709,33 +709,33 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.09898691435936062</v>
+        <v>0.09949673211442275</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04448457616208317</v>
+        <v>0.04538535302628617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2478387231245323</v>
+        <v>0.2587444117182949</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.09144873634567814</v>
+        <v>0.07494460960157544</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02771909565024544</v>
+        <v>0.02846208251541709</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2759349291375642</v>
+        <v>0.2788133697788421</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
       <c r="L5" s="5" t="n">
-        <v>0.1146386722241555</v>
+        <v>0.1129556644573147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04643644631365901</v>
+        <v>0.04828851704028324</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2939102403013171</v>
+        <v>0.2897905512514207</v>
       </c>
     </row>
     <row r="6">
@@ -747,33 +747,33 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.6127301415343894</v>
+        <v>0.6787805176195537</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4429319329007162</v>
+        <v>0.4047917493437782</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5409712844590302</v>
+        <v>0.5532765901289739</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.3219535312060588</v>
+        <v>0.3349314608337496</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2076243044999496</v>
+        <v>0.2336427232663988</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4252520426686577</v>
+        <v>0.435154469543439</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
       <c r="L6" s="5" t="n">
-        <v>0.3298650552716207</v>
+        <v>0.3464644350003797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2153926906059981</v>
+        <v>0.2233860350036179</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4264684006375786</v>
+        <v>0.4295330511391504</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06420547245598361</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2860278992141322</v>
+        <v>0.2860278992141323</v>
       </c>
     </row>
     <row r="8">
@@ -833,35 +833,35 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.03499268291213447</v>
+        <v>0.03567210170600152</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.1332687923628452</v>
+        <v>0.1488413909182046</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1165414772538312</v>
+        <v>0.1155340293365239</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0289124887302072</v>
+        <v>0.02907363697685818</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2251477933996404</v>
+        <v>0.2223485613204455</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1124934138540329</v>
+        <v>0.1129821904019354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01944154744167966</v>
+        <v>0.01973154948828056</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2247250383644424</v>
+        <v>0.2181974302029512</v>
       </c>
     </row>
     <row r="9">
@@ -873,35 +873,35 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.3095715158058546</v>
+        <v>0.3086662670918185</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4009656783243834</v>
+        <v>0.4312749144000221</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.212372582396426</v>
+        <v>0.1909465616895578</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3317000219546879</v>
+        <v>0.3164333683539822</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2282543751920732</v>
+        <v>0.2358229769441179</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3748285661434383</v>
+        <v>0.3788150179377258</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1309943449493595</v>
+        <v>0.1313981326360931</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.274147881957412</v>
+        <v>0.2678606496176876</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1684871849902408</v>
+        <v>0.1670446355262412</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3600284838892728</v>
+        <v>0.3623029972202091</v>
       </c>
     </row>
     <row r="10">
@@ -925,7 +925,7 @@
         <v>0.04603609854175573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1562159567184833</v>
+        <v>0.1562159567184832</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06003606900428034</v>
@@ -965,31 +965,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05857479926679112</v>
+        <v>0.05574940735642872</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09715373869508044</v>
+        <v>0.09976729043018176</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1315126092627506</v>
+        <v>0.1314529057874169</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07500818017711791</v>
+        <v>0.07568965092522165</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01567253457254468</v>
+        <v>0.01526384146017023</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1339411735193471</v>
+        <v>0.130137059849829</v>
       </c>
     </row>
     <row r="12">
@@ -1002,34 +1002,34 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.2370769304921616</v>
+        <v>0.2366808573300394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3454933695281465</v>
+        <v>0.3647680115445496</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2963574600274397</v>
+        <v>0.2572380437094611</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3670677697778951</v>
+        <v>0.3528110459459103</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2442350991128655</v>
+        <v>0.2817455459170621</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3289539300506455</v>
+        <v>0.3270120329842084</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.20089858764492</v>
+        <v>0.2167959970313566</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2700962363617088</v>
+        <v>0.2678058026654379</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1881476336443392</v>
+        <v>0.1868276515137805</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2922278476479772</v>
+        <v>0.2864157814074915</v>
       </c>
     </row>
     <row r="13">
@@ -1093,31 +1093,31 @@
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.0313395500552282</v>
+        <v>0.03354084924627722</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03491878467225779</v>
+        <v>0.03470308618846718</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09882434958625902</v>
+        <v>0.09995386201168582</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1649491147175044</v>
+        <v>0.1617144482854552</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02507491220780302</v>
+        <v>0.02550506112707239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08153248951914399</v>
+        <v>0.08568366994380093</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1380679825245177</v>
+        <v>0.1397602432514309</v>
       </c>
     </row>
     <row r="15">
@@ -1129,35 +1129,35 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.2539188829097106</v>
+        <v>0.2791415038080782</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1889517762156034</v>
+        <v>0.2008029065333203</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2979903931551763</v>
+        <v>0.2793256136358747</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3273249252280641</v>
+        <v>0.3278688547952112</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1212438826498828</v>
+        <v>0.1052416895652912</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3107137194958514</v>
+        <v>0.3010816941688104</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2208730155630284</v>
+        <v>0.2390312065508212</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2539473569779123</v>
+        <v>0.2610037428780904</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0976488148013184</v>
+        <v>0.09391436763729626</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2513210446535035</v>
+        <v>0.2546351371955066</v>
       </c>
     </row>
     <row r="16">
@@ -1217,37 +1217,37 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1467034755194083</v>
+        <v>0.1451355415317845</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2366701653125459</v>
+        <v>0.233727929998526</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1321976110607689</v>
+        <v>0.1330239606952352</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2252900549994626</v>
+        <v>0.2239764350763035</v>
       </c>
     </row>
     <row r="18">
@@ -1259,37 +1259,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2659074905461713</v>
+        <v>0.2581401485362781</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3166590984155079</v>
+        <v>0.3125354102616713</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2253073350252393</v>
+        <v>0.2306721762522151</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.29097976522133</v>
+        <v>0.2957699644937401</v>
       </c>
     </row>
     <row r="19">
@@ -1561,33 +1561,33 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6465</v>
+        <v>6750</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>4217</v>
+        <v>3456</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1104</v>
+        <v>1133</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>18157</v>
+        <v>18347</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
       <c r="L6" s="6" t="n">
-        <v>6500</v>
+        <v>6405</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2730</v>
+        <v>2839</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>27007</v>
+        <v>26629</v>
       </c>
     </row>
     <row r="7">
@@ -1599,33 +1599,33 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>6488</v>
+        <v>7187</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8404</v>
+        <v>7680</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14112</v>
+        <v>14433</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>14846</v>
+        <v>15445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8268</v>
+        <v>9304</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27983</v>
+        <v>28634</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
       <c r="L7" s="6" t="n">
-        <v>18704</v>
+        <v>19645</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12663</v>
+        <v>13133</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>39188</v>
+        <v>39470</v>
       </c>
     </row>
     <row r="8">
@@ -1729,35 +1729,35 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>1134</v>
+        <v>1156</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>3499</v>
+        <v>3908</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7653</v>
+        <v>7586</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16669</v>
+        <v>16462</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>11031</v>
+        <v>11079</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1177</v>
+        <v>1195</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>22538</v>
+        <v>21883</v>
       </c>
     </row>
     <row r="11">
@@ -1769,35 +1769,35 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10029</v>
+        <v>10000</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>10527</v>
+        <v>11322</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5813</v>
+        <v>5226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21781</v>
+        <v>20778</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9373</v>
+        <v>9684</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27751</v>
+        <v>28046</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>5546</v>
+        <v>5563</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26883</v>
+        <v>26267</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10204</v>
+        <v>10117</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36107</v>
+        <v>36335</v>
       </c>
     </row>
     <row r="12">
@@ -1905,31 +1905,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1354</v>
+        <v>1289</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4100</v>
+        <v>4210</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6272</v>
+        <v>6269</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4213</v>
+        <v>4252</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>825</v>
+        <v>803</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9485</v>
+        <v>9215</v>
       </c>
     </row>
     <row r="15">
@@ -1942,34 +1942,34 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>4168</v>
+        <v>4161</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7989</v>
+        <v>8435</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5230</v>
+        <v>4539</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15489</v>
+        <v>14888</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8560</v>
+        <v>9875</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15688</v>
+        <v>15595</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4942</v>
+        <v>5333</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15172</v>
+        <v>15043</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9902</v>
+        <v>9832</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>20693</v>
+        <v>20282</v>
       </c>
     </row>
     <row r="16">
@@ -2077,31 +2077,31 @@
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1038</v>
+        <v>1111</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5067</v>
+        <v>5125</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14499</v>
+        <v>14215</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5937</v>
+        <v>6239</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>16708</v>
+        <v>16913</v>
       </c>
     </row>
     <row r="19">
@@ -2113,35 +2113,35 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5471</v>
+        <v>6014</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>6257</v>
+        <v>6649</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9577</v>
+        <v>8978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16783</v>
+        <v>16810</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6772</v>
+        <v>5878</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27312</v>
+        <v>26465</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10029</v>
+        <v>10854</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18492</v>
+        <v>19006</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>7021</v>
+        <v>6752</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30413</v>
+        <v>30814</v>
       </c>
     </row>
     <row r="20">
@@ -2245,37 +2245,37 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30110</v>
+        <v>29788</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>65186</v>
+        <v>64375</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>37511</v>
+        <v>37746</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>86513</v>
+        <v>86008</v>
       </c>
     </row>
     <row r="23">
@@ -2287,37 +2287,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>54576</v>
+        <v>52982</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>87217</v>
+        <v>86081</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>63931</v>
+        <v>65453</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>111738</v>
+        <v>113577</v>
       </c>
     </row>
     <row r="24">
